--- a/Jyothi Gangarsha Track sheet.xlsx
+++ b/Jyothi Gangarsha Track sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -130,13 +130,61 @@
   </si>
   <si>
     <t>Lifecycle, advance Junit, Mockito</t>
+  </si>
+  <si>
+    <t>Spring MVC</t>
+  </si>
+  <si>
+    <t>Spring Rest</t>
+  </si>
+  <si>
+    <t>Intro, Dependency Injection, Worked with Beans</t>
+  </si>
+  <si>
+    <t>Worked with Annotations, Advance Spring framework</t>
+  </si>
+  <si>
+    <t>Intro, Setting up, Hello World</t>
+  </si>
+  <si>
+    <t>Stucked due to server issues &amp; continued Core Assignment</t>
+  </si>
+  <si>
+    <t>Resolved server issues, Annotations, Data Binding, Form validation</t>
+  </si>
+  <si>
+    <t>Interceptor, Themes, Internationalsation, Exception Handling</t>
+  </si>
+  <si>
+    <t>Web services &amp; Started A1</t>
+  </si>
+  <si>
+    <t>Intro to SOAP, REST &amp; worked with REST Webservices</t>
+  </si>
+  <si>
+    <t>Advance REST web Services API</t>
+  </si>
+  <si>
+    <t>Worked witth HATEOS &amp; Started A1</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Intro to BOOT and Setting up environment, Spring boot application</t>
+  </si>
+  <si>
+    <t>Tool in spring Boot &amp; Spring Boot with JPA</t>
+  </si>
+  <si>
+    <t>Spring Security</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +200,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,14 +224,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,7 +1079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44229</v>
       </c>
@@ -1017,38 +1099,283 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
         <v>44230</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="D28" s="5">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>44231</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="D29" s="5">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
         <v>44232</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>29</v>
       </c>
+      <c r="D30" s="5">
+        <v>7</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>44233</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="5">
+        <v>30</v>
+      </c>
+      <c r="D31" s="5">
+        <v>6</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>44234</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="5">
+        <v>31</v>
+      </c>
+      <c r="D32" s="5">
+        <v>7</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>44235</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="5">
+        <v>32</v>
+      </c>
+      <c r="D33" s="5">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>44236</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="5">
+        <v>33</v>
+      </c>
+      <c r="D34" s="5">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>44237</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5">
+        <v>34</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>44238</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="5">
+        <v>35</v>
+      </c>
+      <c r="D36" s="5">
+        <v>6</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>44239</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="5">
+        <v>36</v>
+      </c>
+      <c r="D37" s="5">
+        <v>7</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>44240</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="5">
+        <v>37</v>
+      </c>
+      <c r="D38" s="5">
+        <v>7</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>44241</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="5">
+        <v>38</v>
+      </c>
+      <c r="D39" s="5">
+        <v>6</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>44242</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="5">
+        <v>39</v>
+      </c>
+      <c r="D40" s="5">
+        <v>6</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>44243</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="5">
+        <v>40</v>
+      </c>
+      <c r="D41" s="5">
+        <v>7</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jyothi Gangarsha Track sheet.xlsx
+++ b/Jyothi Gangarsha Track sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -178,6 +178,57 @@
   </si>
   <si>
     <t>Spring Security</t>
+  </si>
+  <si>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>HTML learning, A1 assignment done</t>
+  </si>
+  <si>
+    <t>CSS learning, A1 assignment done</t>
+  </si>
+  <si>
+    <t>CSS A2 done (HTML &amp; CSS Assignment)</t>
+  </si>
+  <si>
+    <t>JavaScript learning, started with A1 of Js</t>
+  </si>
+  <si>
+    <t>JavaScript started with A2 of Js</t>
+  </si>
+  <si>
+    <t>JavaScript started with A3 of Js</t>
+  </si>
+  <si>
+    <t>ES6 &amp; Typescript</t>
+  </si>
+  <si>
+    <t>Concept, setting up spring security &amp; implementation</t>
+  </si>
+  <si>
+    <t>JWT &amp; OAuth, Started with A1</t>
+  </si>
+  <si>
+    <t>Started A2</t>
+  </si>
+  <si>
+    <t>Intro, class in ES6, modules, collections</t>
+  </si>
+  <si>
+    <t>TypeScript &amp; started with A1</t>
+  </si>
+  <si>
+    <t>A1 done &amp; started with A2, A3</t>
+  </si>
+  <si>
+    <t>Spring Framework</t>
+  </si>
+  <si>
+    <t>Clearing pothholes in some assignments</t>
+  </si>
+  <si>
+    <t>Angular Framework</t>
   </si>
 </sst>
 </file>
@@ -216,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -239,11 +290,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -258,6 +329,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,16 +625,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="4.77734375" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" customWidth="1"/>
     <col min="5" max="5" width="27.5546875" customWidth="1"/>
@@ -1372,10 +1458,274 @@
       <c r="D41" s="5">
         <v>7</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="4"/>
+      <c r="E41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="8">
+        <v>41</v>
+      </c>
+      <c r="D42" s="8">
+        <v>6</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="8">
+        <v>42</v>
+      </c>
+      <c r="D43" s="8">
+        <v>8</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="8">
+        <v>43</v>
+      </c>
+      <c r="D44" s="8">
+        <v>7</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="8">
+        <v>44</v>
+      </c>
+      <c r="D45" s="8">
+        <v>6</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44248</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="8">
+        <v>45</v>
+      </c>
+      <c r="D46" s="8">
+        <v>8</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="8">
+        <v>46</v>
+      </c>
+      <c r="D47" s="8">
+        <v>6</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="8">
+        <v>47</v>
+      </c>
+      <c r="D48" s="8">
+        <v>7</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="8">
+        <v>48</v>
+      </c>
+      <c r="D49" s="8">
+        <v>7</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="10">
+        <v>44252</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="11">
+        <v>49</v>
+      </c>
+      <c r="D50" s="11">
+        <v>7</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="10">
+        <v>44253</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="11">
+        <v>50</v>
+      </c>
+      <c r="D51" s="11">
+        <v>6</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>44254</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="5">
+        <v>51</v>
+      </c>
+      <c r="D52" s="5">
+        <v>8</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>44255</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="5">
+        <v>52</v>
+      </c>
+      <c r="D53" s="5">
+        <v>7</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>44256</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>44257</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="5">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jyothi Gangarsha Track sheet.xlsx
+++ b/Jyothi Gangarsha Track sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -229,6 +229,36 @@
   </si>
   <si>
     <t>Angular Framework</t>
+  </si>
+  <si>
+    <t>Intro and components - Angular, directives.</t>
+  </si>
+  <si>
+    <t>Pipes, services, Http,Routing, Component Interaction</t>
+  </si>
+  <si>
+    <t>Angular 6,8 features &amp; Foms, started A1</t>
+  </si>
+  <si>
+    <t>Spring &amp; Angular</t>
+  </si>
+  <si>
+    <t>Learining</t>
+  </si>
+  <si>
+    <t>Forms and angular material, Hands on spring boot microservices</t>
+  </si>
+  <si>
+    <t>Angular material and started A2</t>
+  </si>
+  <si>
+    <t>Spring Cloud</t>
+  </si>
+  <si>
+    <t>Fault tolerance and resilience</t>
+  </si>
+  <si>
+    <t>React Framework</t>
   </si>
 </sst>
 </file>
@@ -625,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1715,6 +1745,15 @@
       <c r="C54" s="5">
         <v>53</v>
       </c>
+      <c r="D54" s="5">
+        <v>6</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
@@ -1726,6 +1765,137 @@
       <c r="C55" s="5">
         <v>54</v>
       </c>
+      <c r="D55" s="5">
+        <v>7</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>44258</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="5">
+        <v>55</v>
+      </c>
+      <c r="D56" s="5">
+        <v>6</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>44259</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="5">
+        <v>56</v>
+      </c>
+      <c r="D57" s="5">
+        <v>8</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>44260</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="5">
+        <v>57</v>
+      </c>
+      <c r="D58" s="5">
+        <v>7</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>44261</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="5">
+        <v>58</v>
+      </c>
+      <c r="D59" s="5">
+        <v>6</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>44262</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="5">
+        <v>59</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>44263</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="5">
+        <v>60</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>44264</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="5">
+        <v>61</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jyothi Gangarsha Track sheet.xlsx
+++ b/Jyothi Gangarsha Track sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -259,6 +259,33 @@
   </si>
   <si>
     <t>React Framework</t>
+  </si>
+  <si>
+    <t>A1, A2 Pending</t>
+  </si>
+  <si>
+    <t>A1, A2, A3 Done</t>
+  </si>
+  <si>
+    <t>Intro to react, typescript</t>
+  </si>
+  <si>
+    <t>Spring cloud</t>
+  </si>
+  <si>
+    <t>Services discovery - eureka, Circuit Breaker pattern</t>
+  </si>
+  <si>
+    <t>Working with hystrix, Netflix Zuul API</t>
+  </si>
+  <si>
+    <t>Spring Cloud Config, Severless, AWS Lambda, ApI Gateway</t>
+  </si>
+  <si>
+    <t>React Components</t>
+  </si>
+  <si>
+    <t>A2 Pending</t>
   </si>
 </sst>
 </file>
@@ -655,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1865,23 +1892,35 @@
       <c r="C60" s="5">
         <v>59</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="D60" s="5">
+        <v>5</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>44263</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C61" s="5">
         <v>60</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="D61" s="5">
+        <v>6</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
@@ -1893,9 +1932,131 @@
       <c r="C62" s="5">
         <v>61</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="D62" s="5">
+        <v>7</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="5">
+        <v>62</v>
+      </c>
+      <c r="D63" s="5">
+        <v>6</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>44266</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="5">
+        <v>63</v>
+      </c>
+      <c r="D64" s="5">
+        <v>5</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>44267</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="5">
+        <v>64</v>
+      </c>
+      <c r="D65" s="5">
+        <v>7</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="5">
+        <v>65</v>
+      </c>
+      <c r="D66" s="5">
+        <v>6</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>44269</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="5">
+        <v>66</v>
+      </c>
+      <c r="D67" s="5">
+        <v>7</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>44270</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="5">
+        <v>67</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jyothi Gangarsha Track sheet.xlsx
+++ b/Jyothi Gangarsha Track sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="112">
   <si>
     <t>Date</t>
   </si>
@@ -286,13 +286,82 @@
   </si>
   <si>
     <t>A2 Pending</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Git%20and%20GitHub</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/MongoDB</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Java/Assign1</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Java/Assign2</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Java/Assign3</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Java</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Spring%20Core</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Spring%20Mvc</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Spring%20REST</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web%20Development/HTML</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web%20Development/CSS</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web%20Development/Js</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Es6%20%26%20Typescript</t>
+  </si>
+  <si>
+    <t>RabbitMq</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>working with forms, React testing, Routing</t>
+  </si>
+  <si>
+    <t>Hooks, Redux core concept &amp; implementation</t>
+  </si>
+  <si>
+    <t>React redux &amp; Hooks</t>
+  </si>
+  <si>
+    <t>Advance React and A1 done</t>
+  </si>
+  <si>
+    <t>Intro to JMS &amp; RabbitMQ</t>
+  </si>
+  <si>
+    <t>Exchanges in RabbitMQ Started A1</t>
+  </si>
+  <si>
+    <t>A1 done</t>
+  </si>
+  <si>
+    <t>Introduction and Installation Setup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +380,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,10 +445,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -402,8 +480,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -682,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,10 +778,10 @@
     <col min="4" max="4" width="6.5546875" customWidth="1"/>
     <col min="5" max="5" width="27.5546875" customWidth="1"/>
     <col min="6" max="6" width="59.44140625" customWidth="1"/>
-    <col min="7" max="7" width="58.21875" customWidth="1"/>
+    <col min="7" max="7" width="83.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44204</v>
       </c>
@@ -741,8 +823,9 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44205</v>
       </c>
@@ -761,8 +844,11 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44206</v>
       </c>
@@ -781,8 +867,9 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -801,8 +888,9 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>12</v>
       </c>
@@ -821,8 +909,9 @@
       <c r="F6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>13</v>
       </c>
@@ -841,8 +930,9 @@
       <c r="F7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>14</v>
       </c>
@@ -861,8 +951,11 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>15</v>
       </c>
@@ -881,8 +974,9 @@
       <c r="F9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -901,8 +995,9 @@
       <c r="F10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>17</v>
       </c>
@@ -921,8 +1016,9 @@
       <c r="F11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>18</v>
       </c>
@@ -941,8 +1037,9 @@
       <c r="F12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>19</v>
       </c>
@@ -961,8 +1058,9 @@
       <c r="F13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -981,8 +1079,9 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>21</v>
       </c>
@@ -1001,8 +1100,9 @@
       <c r="F15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>22</v>
       </c>
@@ -1021,8 +1121,11 @@
       <c r="F16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>23</v>
       </c>
@@ -1041,8 +1144,9 @@
       <c r="F17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>24</v>
       </c>
@@ -1061,8 +1165,9 @@
       <c r="F18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>25</v>
       </c>
@@ -1081,8 +1186,11 @@
       <c r="F19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>26</v>
       </c>
@@ -1101,8 +1209,9 @@
       <c r="F20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>27</v>
       </c>
@@ -1121,8 +1230,9 @@
       <c r="F21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>28</v>
       </c>
@@ -1141,8 +1251,9 @@
       <c r="F22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>29</v>
       </c>
@@ -1161,8 +1272,11 @@
       <c r="F23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>30</v>
       </c>
@@ -1181,8 +1295,11 @@
       <c r="F24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>31</v>
       </c>
@@ -1201,8 +1318,9 @@
       <c r="F25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44228</v>
       </c>
@@ -1221,8 +1339,9 @@
       <c r="F26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44229</v>
       </c>
@@ -1241,8 +1360,9 @@
       <c r="F27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>44230</v>
       </c>
@@ -1261,8 +1381,9 @@
       <c r="F28" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>44231</v>
       </c>
@@ -1281,8 +1402,9 @@
       <c r="F29" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>44232</v>
       </c>
@@ -1301,8 +1423,11 @@
       <c r="F30" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>44233</v>
       </c>
@@ -1321,8 +1446,9 @@
       <c r="F31" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>44234</v>
       </c>
@@ -1341,8 +1467,9 @@
       <c r="F32" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>44235</v>
       </c>
@@ -1361,8 +1488,9 @@
       <c r="F33" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>44236</v>
       </c>
@@ -1381,8 +1509,9 @@
       <c r="F34" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>44237</v>
       </c>
@@ -1401,8 +1530,11 @@
       <c r="F35" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>44238</v>
       </c>
@@ -1421,8 +1553,9 @@
       <c r="F36" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>44239</v>
       </c>
@@ -1441,8 +1574,9 @@
       <c r="F37" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>44240</v>
       </c>
@@ -1461,8 +1595,11 @@
       <c r="F38" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>44241</v>
       </c>
@@ -1481,8 +1618,9 @@
       <c r="F39" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>44242</v>
       </c>
@@ -1501,8 +1639,9 @@
       <c r="F40" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>44243</v>
       </c>
@@ -1521,8 +1660,9 @@
       <c r="F41" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>44244</v>
       </c>
@@ -1541,8 +1681,9 @@
       <c r="F42" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>44245</v>
       </c>
@@ -1561,8 +1702,9 @@
       <c r="F43" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>44246</v>
       </c>
@@ -1581,8 +1723,11 @@
       <c r="F44" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44247</v>
       </c>
@@ -1601,8 +1746,11 @@
       <c r="F45" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>44248</v>
       </c>
@@ -1621,8 +1769,9 @@
       <c r="F46" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>44249</v>
       </c>
@@ -1641,8 +1790,9 @@
       <c r="F47" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>44250</v>
       </c>
@@ -1661,8 +1811,9 @@
       <c r="F48" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>44251</v>
       </c>
@@ -1681,8 +1832,11 @@
       <c r="F49" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10">
         <v>44252</v>
       </c>
@@ -1701,8 +1855,9 @@
       <c r="F50" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>44253</v>
       </c>
@@ -1721,8 +1876,9 @@
       <c r="F51" s="6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>44254</v>
       </c>
@@ -1741,8 +1897,11 @@
       <c r="F52" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>44255</v>
       </c>
@@ -1761,8 +1920,9 @@
       <c r="F53" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>44256</v>
       </c>
@@ -1781,8 +1941,9 @@
       <c r="F54" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>44257</v>
       </c>
@@ -1801,8 +1962,9 @@
       <c r="F55" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>44258</v>
       </c>
@@ -1821,8 +1983,9 @@
       <c r="F56" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>44259</v>
       </c>
@@ -1841,8 +2004,9 @@
       <c r="F57" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>44260</v>
       </c>
@@ -1861,8 +2025,9 @@
       <c r="F58" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>44261</v>
       </c>
@@ -1881,8 +2046,9 @@
       <c r="F59" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>44262</v>
       </c>
@@ -1901,8 +2067,9 @@
       <c r="F60" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>44263</v>
       </c>
@@ -1921,8 +2088,9 @@
       <c r="F61" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>44264</v>
       </c>
@@ -1941,8 +2109,9 @@
       <c r="F62" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>44265</v>
       </c>
@@ -1961,8 +2130,9 @@
       <c r="F63" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>44266</v>
       </c>
@@ -1981,8 +2151,9 @@
       <c r="F64" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>44267</v>
       </c>
@@ -2001,8 +2172,9 @@
       <c r="F65" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>44268</v>
       </c>
@@ -2022,7 +2194,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>44269</v>
       </c>
@@ -2042,7 +2214,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>44270</v>
       </c>
@@ -2052,14 +2224,230 @@
       <c r="C68" s="5">
         <v>67</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4">
+        <v>6</v>
+      </c>
       <c r="E68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>44271</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="8">
+        <v>68</v>
+      </c>
+      <c r="D69" s="8">
+        <v>7</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>44272</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="8">
+        <v>69</v>
+      </c>
+      <c r="D70" s="8">
+        <v>6</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>44273</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="8">
+        <v>70</v>
+      </c>
+      <c r="D71" s="8">
+        <v>7</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="8">
+        <v>71</v>
+      </c>
+      <c r="D72" s="8">
+        <v>5</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>44275</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="8">
+        <v>72</v>
+      </c>
+      <c r="D73" s="8">
+        <v>0</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>44276</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="8">
+        <v>73</v>
+      </c>
+      <c r="D74" s="8">
+        <v>4</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="8">
+        <v>74</v>
+      </c>
+      <c r="D75" s="8">
+        <v>6</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="8">
+        <v>75</v>
+      </c>
+      <c r="D76" s="8">
+        <v>7</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>44279</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="8">
+        <v>76</v>
+      </c>
+      <c r="D77" s="8">
+        <v>6</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>44280</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="8">
+        <v>77</v>
+      </c>
+      <c r="D78" s="8">
+        <v>7</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Git and GitHub"/>
+    <hyperlink ref="G8" r:id="rId2"/>
+    <hyperlink ref="G16" r:id="rId3"/>
+    <hyperlink ref="G19" r:id="rId4"/>
+    <hyperlink ref="G23" r:id="rId5"/>
+    <hyperlink ref="G24" r:id="rId6"/>
+    <hyperlink ref="G30" r:id="rId7" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Spring Core"/>
+    <hyperlink ref="G35" r:id="rId8" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Spring Mvc"/>
+    <hyperlink ref="G38" r:id="rId9" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Spring REST"/>
+    <hyperlink ref="G44" r:id="rId10" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web Development/HTML"/>
+    <hyperlink ref="G45" r:id="rId11" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web Development/CSS"/>
+    <hyperlink ref="G49" r:id="rId12" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web Development/Js"/>
+    <hyperlink ref="G52" r:id="rId13" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Es6 %26 Typescript"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Jyothi Gangarsha Track sheet.xlsx
+++ b/Jyothi Gangarsha Track sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -327,9 +327,6 @@
     <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Es6%20%26%20Typescript</t>
   </si>
   <si>
-    <t>RabbitMq</t>
-  </si>
-  <si>
     <t>Docker</t>
   </si>
   <si>
@@ -355,6 +352,27 @@
   </si>
   <si>
     <t>Introduction and Installation Setup</t>
+  </si>
+  <si>
+    <t>Advance Docker commands</t>
+  </si>
+  <si>
+    <t>Building docker image using spring boot, started A1</t>
+  </si>
+  <si>
+    <t>A1 Done</t>
+  </si>
+  <si>
+    <t>CaseStudy</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Docker</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Spring%20Security</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
   </si>
 </sst>
 </file>
@@ -449,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -483,6 +501,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -764,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1681,7 +1700,9 @@
       <c r="F42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="13" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
@@ -2231,7 +2252,7 @@
         <v>13</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2251,7 +2272,7 @@
         <v>13</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2291,7 +2312,7 @@
         <v>13</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2311,7 +2332,7 @@
         <v>17</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2319,7 +2340,7 @@
         <v>44275</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C73" s="8">
         <v>72</v>
@@ -2339,7 +2360,7 @@
         <v>44276</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C74" s="8">
         <v>73</v>
@@ -2351,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2359,7 +2380,7 @@
         <v>44277</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C75" s="8">
         <v>74</v>
@@ -2371,7 +2392,7 @@
         <v>17</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2379,7 +2400,7 @@
         <v>44278</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C76" s="8">
         <v>75</v>
@@ -2391,15 +2412,15 @@
         <v>14</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>44279</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="8">
         <v>76</v>
@@ -2411,25 +2432,171 @@
         <v>13</v>
       </c>
       <c r="F77" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="10">
+        <v>44280</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" s="11">
+        <v>77</v>
+      </c>
+      <c r="D78" s="11">
+        <v>7</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>44280</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C78" s="8">
-        <v>77</v>
-      </c>
-      <c r="D78" s="8">
-        <v>7</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="5">
+        <v>78</v>
+      </c>
+      <c r="D79" s="5">
+        <v>4</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="5">
+        <v>79</v>
+      </c>
+      <c r="D80" s="5">
+        <v>6</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="5">
+        <v>80</v>
+      </c>
+      <c r="D81" s="5">
+        <v>5</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="5">
+        <v>81</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="5">
+        <v>82</v>
+      </c>
+      <c r="D83" s="5">
+        <v>4</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="5">
+        <v>83</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>44287</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="5">
+        <v>84</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5">
+        <v>85</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2446,8 +2613,10 @@
     <hyperlink ref="G45" r:id="rId11" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web Development/CSS"/>
     <hyperlink ref="G49" r:id="rId12" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web Development/Js"/>
     <hyperlink ref="G52" r:id="rId13" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Es6 %26 Typescript"/>
+    <hyperlink ref="G83" r:id="rId14"/>
+    <hyperlink ref="G42" r:id="rId15" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Spring Security"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Jyothi Gangarsha Track sheet.xlsx
+++ b/Jyothi Gangarsha Track sheet.xlsx
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Jyothi Gangarsha Track sheet.xlsx
+++ b/Jyothi Gangarsha Track sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -373,6 +373,24 @@
   </si>
   <si>
     <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Angular/Angular%20A-1/frontend</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/React</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/RabbitMQ</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Angular/AngularA-2/frontend</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Pending Assignments done</t>
   </si>
 </sst>
 </file>
@@ -785,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1700,7 +1718,7 @@
       <c r="F42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1985,7 +2003,7 @@
       </c>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>44258</v>
       </c>
@@ -2004,7 +2022,9 @@
       <c r="F56" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="4"/>
+      <c r="G56" s="12" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
@@ -2109,7 +2129,9 @@
       <c r="F61" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G61" s="4"/>
+      <c r="G61" s="13" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
@@ -2214,6 +2236,7 @@
       <c r="F66" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -2234,6 +2257,7 @@
       <c r="F67" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
@@ -2254,6 +2278,7 @@
       <c r="F68" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
@@ -2274,6 +2299,7 @@
       <c r="F69" s="7" t="s">
         <v>104</v>
       </c>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
@@ -2294,6 +2320,9 @@
       <c r="F70" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="G70" s="12" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
@@ -2314,6 +2343,7 @@
       <c r="F71" s="7" t="s">
         <v>105</v>
       </c>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
@@ -2334,8 +2364,9 @@
       <c r="F72" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>44275</v>
       </c>
@@ -2354,8 +2385,9 @@
       <c r="F73" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>44276</v>
       </c>
@@ -2374,8 +2406,9 @@
       <c r="F74" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>44277</v>
       </c>
@@ -2394,8 +2427,9 @@
       <c r="F75" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>44278</v>
       </c>
@@ -2413,6 +2447,9 @@
       </c>
       <c r="F76" s="7" t="s">
         <v>109</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2434,6 +2471,7 @@
       <c r="F77" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10">
@@ -2454,6 +2492,7 @@
       <c r="F78" s="6" t="s">
         <v>111</v>
       </c>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
@@ -2474,6 +2513,7 @@
       <c r="F79" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
@@ -2494,6 +2534,9 @@
       <c r="F80" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="G80" s="12" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
@@ -2514,6 +2557,9 @@
       <c r="F81" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="G81" s="12" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -2534,6 +2580,7 @@
       <c r="F82" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
@@ -2554,7 +2601,7 @@
       <c r="F83" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G83" s="13" t="s">
+      <c r="G83" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2563,14 +2610,20 @@
         <v>44286</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C84" s="5">
         <v>83</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
+      <c r="D84" s="4">
+        <v>6</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -2590,7 +2643,9 @@
       <c r="A86" s="3">
         <v>44288</v>
       </c>
-      <c r="B86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C86" s="5">
         <v>85</v>
       </c>
@@ -2609,14 +2664,20 @@
     <hyperlink ref="G30" r:id="rId7" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Spring Core"/>
     <hyperlink ref="G35" r:id="rId8" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Spring Mvc"/>
     <hyperlink ref="G38" r:id="rId9" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Spring REST"/>
-    <hyperlink ref="G44" r:id="rId10" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web Development/HTML"/>
-    <hyperlink ref="G45" r:id="rId11" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web Development/CSS"/>
-    <hyperlink ref="G49" r:id="rId12" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web Development/Js"/>
-    <hyperlink ref="G52" r:id="rId13" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Es6 %26 Typescript"/>
-    <hyperlink ref="G83" r:id="rId14"/>
-    <hyperlink ref="G42" r:id="rId15" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Spring Security"/>
+    <hyperlink ref="G42" r:id="rId10" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Spring Security"/>
+    <hyperlink ref="G44" r:id="rId11" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web Development/HTML"/>
+    <hyperlink ref="G45" r:id="rId12" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web Development/CSS"/>
+    <hyperlink ref="G49" r:id="rId13" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Web Development/Js"/>
+    <hyperlink ref="G52" r:id="rId14" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Es6 %26 Typescript"/>
+    <hyperlink ref="G56" r:id="rId15" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Angular/Angular A-1/frontend"/>
+    <hyperlink ref="G70" r:id="rId16"/>
+    <hyperlink ref="G76" r:id="rId17"/>
+    <hyperlink ref="G80" r:id="rId18"/>
+    <hyperlink ref="G81" r:id="rId19"/>
+    <hyperlink ref="G83" r:id="rId20"/>
+    <hyperlink ref="G61" r:id="rId21" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Es6 %26 Typescript"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Jyothi Gangarsha Track sheet.xlsx
+++ b/Jyothi Gangarsha Track sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Pending Assignments done</t>
+  </si>
+  <si>
+    <t>https://github.com/KJGangarsha/ADAPT</t>
   </si>
 </sst>
 </file>
@@ -803,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="C60" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2623,6 +2626,9 @@
       </c>
       <c r="F84" s="4" t="s">
         <v>123</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2676,8 +2682,9 @@
     <hyperlink ref="G81" r:id="rId19"/>
     <hyperlink ref="G83" r:id="rId20"/>
     <hyperlink ref="G61" r:id="rId21" display="https://github.com/KJGangarsha/ADAPT/tree/master/Assignments/Es6 %26 Typescript"/>
+    <hyperlink ref="G84" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>